--- a/documentation/TestPlan.xlsx
+++ b/documentation/TestPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\withdrive\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F032518-F6C1-43BE-AEB3-2C0BAA8E7B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FE7B5-1212-4F04-AB18-55FC4BF29646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>Project Name</t>
   </si>
@@ -186,9 +186,6 @@
    Password: password
 3. Attempt to login</t>
     </r>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>Passenger</t>
@@ -2185,6 +2182,111 @@
         <a:xfrm>
           <a:off x="8735786" y="35882036"/>
           <a:ext cx="2721428" cy="878617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2857941</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1483178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EFEB4D-557A-443C-9313-0B92CA7FA76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8763000" y="38644286"/>
+          <a:ext cx="2762691" cy="1387928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1660069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2811926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2906484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7454A5F5-D4E7-4919-A4AB-6971EE6F9F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8776607" y="40209105"/>
+          <a:ext cx="2703069" cy="1246415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,7 +2624,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2675,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1"/>
@@ -2604,7 +2706,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="1"/>
@@ -2662,7 +2764,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2686,20 +2788,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2733,10 +2835,10 @@
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2760,20 +2862,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2797,22 +2899,22 @@
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2833,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -2846,10 +2948,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2870,23 +2972,23 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2907,10 +3009,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -2920,10 +3022,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2957,10 +3059,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2981,23 +3083,23 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3018,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>34</v>
@@ -3031,10 +3133,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3055,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>35</v>
@@ -3068,10 +3170,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3092,23 +3194,23 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3142,10 +3244,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3166,7 +3268,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>42</v>
@@ -3179,10 +3281,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3206,20 +3308,20 @@
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3243,20 +3345,20 @@
         <v>5</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3280,20 +3382,20 @@
         <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3317,24 +3419,23 @@
         <v>6</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="12">
-        <v>44244</v>
+        <v>44547</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3346,7 +3447,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -3354,19 +3455,21 @@
         <v>5</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="H25" s="12">
+        <v>44559</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -4136,132 +4239,137 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E13 C14:D14 C13 C15:E17 C29 A7:H8 G10:G11 B10:E12 D18:E18 B21:H21 A10:A21 F9:F21 B19:F20 H10:H21 A23:F25">
-    <cfRule type="expression" dxfId="36" priority="79">
+  <conditionalFormatting sqref="E13 C14:D14 C13 C15:E17 C29 A7:H7 G10:G11 B10:E12 D18:E18 B21:G21 A10:A21 F9:F21 B19:F20 A23:F25 A8:G8 H8:H24">
+    <cfRule type="expression" dxfId="36" priority="80">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="35" priority="47">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="34" priority="46">
+    <cfRule type="expression" dxfId="34" priority="47">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="33" priority="45">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:B9 D9:E9 G9:H9">
-    <cfRule type="expression" dxfId="28" priority="34">
+  <conditionalFormatting sqref="A9:B9 D9:E9 G9">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>#REF!=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="G18">
     <cfRule type="expression" dxfId="17" priority="18">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G19">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" dxfId="15" priority="16">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="G20">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="A22:G22">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:H22">
+  <conditionalFormatting sqref="G22">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G25">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>#REF!=TRUE</formula>
     </cfRule>
@@ -4271,17 +4379,7 @@
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>#REF!=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>#REF!=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G23">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>#REF!=TRUE</formula>
     </cfRule>
@@ -4291,7 +4389,7 @@
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!=TRUE</formula>
     </cfRule>
@@ -4301,17 +4399,7 @@
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>#REF!=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H25">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=TRUE</formula>
     </cfRule>
